--- a/paper-case-studies/case-4/data/pnl_calibrations.xlsx
+++ b/paper-case-studies/case-4/data/pnl_calibrations.xlsx
@@ -399,7 +399,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.6869564407548443</v>
+        <v>0.4199392028937624</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -407,7 +407,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1.216704673061194</v>
+        <v>-0.982051839399506</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -415,7 +415,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>342.0670551671182</v>
+        <v>159.3477298658043</v>
       </c>
     </row>
   </sheetData>
